--- a/biology/Botanique/Polyphlebium_pyxidiferum/Polyphlebium_pyxidiferum.xlsx
+++ b/biology/Botanique/Polyphlebium_pyxidiferum/Polyphlebium_pyxidiferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyphlebium pyxidiferum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a les caractéristiques suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce a les caractéristiques suivantes :
 le rhizome est long et très fin,
 les frondes sont divisées deux fois à trois fois et assez espacées au long du rhizome,
 leur pétiole, de moins de trois centimètre de long, est ailé,
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente sur une vaste aire de répartition : Amérique tropicale, Caraïbe, Afrique tropicale, Polynésie, Asie.
 </t>
@@ -577,13 +593,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite une première fois par Charles Plumier sous le nom de Filicula pyxidifera[2]. L'épithète spécifique, qui a suivi les différents changements de genre - Filicula, Trichomanes puis Polyphlebium -, provient de ces sporanges cupuliformes qui ont intrigué Charles Plumier : pyxis, petite boîte.
-En 1753, Carl von Linné la place dans le genre Trichomanes : Trichomanes pyxidiferum L.[3].
-En 1938, Edwin Bingham Copeland la place dans le genre Vandenboschia : Vandenboschia pyxidifera (L.) Copel.[4].
-En 1968, Conrad Vernon Morton la place dans la section Crepidomanes du sous-genre Trichomanes du genre Trichomanes, en émettant un doute sur ce classement (il avait transféré le genre Vandenboschia de Copeland en quasi-intégralité dans la section Lacosteopsis)[5].
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la place dans le genre Polyphlebium en en faisant une espèce représentative de ce genre[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce a été décrite une première fois par Charles Plumier sous le nom de Filicula pyxidifera. L'épithète spécifique, qui a suivi les différents changements de genre - Filicula, Trichomanes puis Polyphlebium -, provient de ces sporanges cupuliformes qui ont intrigué Charles Plumier : pyxis, petite boîte.
+En 1753, Carl von Linné la place dans le genre Trichomanes : Trichomanes pyxidiferum L..
+En 1938, Edwin Bingham Copeland la place dans le genre Vandenboschia : Vandenboschia pyxidifera (L.) Copel..
+En 1968, Conrad Vernon Morton la place dans la section Crepidomanes du sous-genre Trichomanes du genre Trichomanes, en émettant un doute sur ce classement (il avait transféré le genre Vandenboschia de Copeland en quasi-intégralité dans la section Lacosteopsis).
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la place dans le genre Polyphlebium en en faisant une espèce représentative de ce genre.
 Cette espèce compte aussi de nombreux synonymes liés à des redécouvertes dans sa très vase aire de répartition :
 Trichomanes ambiguum Mart.
 Trichomanes brasiliense Desv.
